--- a/code/UG_social_bin1.xlsx
+++ b/code/UG_social_bin1.xlsx
@@ -13,7 +13,655 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Irrev</t>
+  </si>
+  <si>
+    <t>Irrev2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
   <si>
     <t>Irrev</t>
   </si>
@@ -94,7 +742,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C114"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
@@ -104,13 +752,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>225</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2">
@@ -566,32 +1214,32 @@
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>265.28945454545453</v>
+        <v>200.30575833333333</v>
       </c>
       <c r="B43" s="0">
-        <v>1.5107296363636364</v>
+        <v>1.2206837499999998</v>
       </c>
       <c r="C43" s="0">
-        <v>10641</v>
+        <v>10640</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>188.69607499999998</v>
+        <v>265.28945454545453</v>
       </c>
       <c r="B44" s="0">
-        <v>1.2429328333333334</v>
+        <v>1.5107296363636364</v>
       </c>
       <c r="C44" s="0">
-        <v>10642</v>
+        <v>10641</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>183.22128166666667</v>
+        <v>188.69607499999998</v>
       </c>
       <c r="B45" s="0">
-        <v>1.0691319166666666</v>
+        <v>1.2429328333333334</v>
       </c>
       <c r="C45" s="0">
         <v>10642</v>
@@ -599,21 +1247,21 @@
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>201.81664705882352</v>
+        <v>183.22128166666667</v>
       </c>
       <c r="B46" s="0">
-        <v>1.5638017647058824</v>
+        <v>1.0691319166666666</v>
       </c>
       <c r="C46" s="0">
-        <v>10644</v>
+        <v>10642</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>154.01284818181819</v>
+        <v>201.81664705882352</v>
       </c>
       <c r="B47" s="0">
-        <v>1.3517595454545452</v>
+        <v>1.5638017647058824</v>
       </c>
       <c r="C47" s="0">
         <v>10644</v>
@@ -621,21 +1269,21 @@
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>163.994</v>
+        <v>154.01284818181819</v>
       </c>
       <c r="B48" s="0">
-        <v>0.74993733333333334</v>
+        <v>1.3517595454545452</v>
       </c>
       <c r="C48" s="0">
-        <v>10647</v>
+        <v>10644</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>145.10634999999999</v>
+        <v>163.994</v>
       </c>
       <c r="B49" s="0">
-        <v>0.73496687500000013</v>
+        <v>0.74993733333333334</v>
       </c>
       <c r="C49" s="0">
         <v>10647</v>
@@ -643,21 +1291,21 @@
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>188.54174999999998</v>
+        <v>145.10634999999999</v>
       </c>
       <c r="B50" s="0">
-        <v>1.7395475</v>
+        <v>0.73496687500000013</v>
       </c>
       <c r="C50" s="0">
-        <v>10649</v>
+        <v>10647</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>242.68074999999999</v>
+        <v>188.54174999999998</v>
       </c>
       <c r="B51" s="0">
-        <v>1.583217125</v>
+        <v>1.7395475</v>
       </c>
       <c r="C51" s="0">
         <v>10649</v>
@@ -665,21 +1313,21 @@
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>121.82426000000001</v>
+        <v>242.68074999999999</v>
       </c>
       <c r="B52" s="0">
-        <v>1.5116216999999998</v>
+        <v>1.583217125</v>
       </c>
       <c r="C52" s="0">
-        <v>10652</v>
+        <v>10649</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>170.7482</v>
+        <v>121.82426000000001</v>
       </c>
       <c r="B53" s="0">
-        <v>1.855904875</v>
+        <v>1.5116216999999998</v>
       </c>
       <c r="C53" s="0">
         <v>10652</v>
@@ -687,21 +1335,21 @@
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>209.00540000000001</v>
+        <v>170.7482</v>
       </c>
       <c r="B54" s="0">
-        <v>1.053814875</v>
+        <v>1.855904875</v>
       </c>
       <c r="C54" s="0">
-        <v>10656</v>
+        <v>10652</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>185.6712</v>
+        <v>209.00540000000001</v>
       </c>
       <c r="B55" s="0">
-        <v>0.87172540000000009</v>
+        <v>1.053814875</v>
       </c>
       <c r="C55" s="0">
         <v>10656</v>
@@ -709,21 +1357,21 @@
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>189.17901076923076</v>
+        <v>185.6712</v>
       </c>
       <c r="B56" s="0">
-        <v>1.6280111538461539</v>
+        <v>0.87172540000000009</v>
       </c>
       <c r="C56" s="0">
-        <v>10657</v>
+        <v>10656</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>210.63419999999999</v>
+        <v>189.17901076923076</v>
       </c>
       <c r="B57" s="0">
-        <v>1.3224495000000001</v>
+        <v>1.6280111538461539</v>
       </c>
       <c r="C57" s="0">
         <v>10657</v>
@@ -731,21 +1379,21 @@
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>191.62084615384617</v>
+        <v>210.63419999999999</v>
       </c>
       <c r="B58" s="0">
-        <v>1.4548386923076924</v>
+        <v>1.3224495000000001</v>
       </c>
       <c r="C58" s="0">
-        <v>10659</v>
+        <v>10657</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>167.62727272727273</v>
+        <v>191.62084615384617</v>
       </c>
       <c r="B59" s="0">
-        <v>1.3831950909090909</v>
+        <v>1.4548386923076924</v>
       </c>
       <c r="C59" s="0">
         <v>10659</v>
@@ -753,21 +1401,21 @@
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>223.69720769230767</v>
+        <v>167.62727272727273</v>
       </c>
       <c r="B60" s="0">
-        <v>1.7936660769230768</v>
+        <v>1.3831950909090909</v>
       </c>
       <c r="C60" s="0">
-        <v>10663</v>
+        <v>10659</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>219.72388999999998</v>
+        <v>223.69720769230767</v>
       </c>
       <c r="B61" s="0">
-        <v>1.6799509000000001</v>
+        <v>1.7936660769230768</v>
       </c>
       <c r="C61" s="0">
         <v>10663</v>
@@ -775,21 +1423,21 @@
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>206.95674000000002</v>
+        <v>219.72388999999998</v>
       </c>
       <c r="B62" s="0">
-        <v>1.2053005999999999</v>
+        <v>1.6799509000000001</v>
       </c>
       <c r="C62" s="0">
-        <v>10673</v>
+        <v>10663</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>221.29356428571427</v>
+        <v>206.95674000000002</v>
       </c>
       <c r="B63" s="0">
-        <v>1.278150785714286</v>
+        <v>1.2053005999999999</v>
       </c>
       <c r="C63" s="0">
         <v>10673</v>
@@ -797,21 +1445,21 @@
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>225.75057777777778</v>
+        <v>221.29356428571427</v>
       </c>
       <c r="B64" s="0">
-        <v>1.5979039999999998</v>
+        <v>1.278150785714286</v>
       </c>
       <c r="C64" s="0">
-        <v>10674</v>
+        <v>10673</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>170.02513999999996</v>
+        <v>225.75057777777778</v>
       </c>
       <c r="B65" s="0">
-        <v>1.3681345999999999</v>
+        <v>1.5979039999999998</v>
       </c>
       <c r="C65" s="0">
         <v>10674</v>
@@ -819,21 +1467,21 @@
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>200.96693636363634</v>
+        <v>170.02513999999996</v>
       </c>
       <c r="B66" s="0">
-        <v>1.3134569090909092</v>
+        <v>1.3681345999999999</v>
       </c>
       <c r="C66" s="0">
-        <v>10677</v>
+        <v>10674</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>207.90808461538461</v>
+        <v>200.96693636363634</v>
       </c>
       <c r="B67" s="0">
-        <v>1.4025273076923075</v>
+        <v>1.3134569090909092</v>
       </c>
       <c r="C67" s="0">
         <v>10677</v>
@@ -841,21 +1489,21 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>191.08192307692309</v>
+        <v>207.90808461538461</v>
       </c>
       <c r="B68" s="0">
-        <v>1.7348590000000002</v>
+        <v>1.4025273076923075</v>
       </c>
       <c r="C68" s="0">
-        <v>10685</v>
+        <v>10677</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>185.12975833333334</v>
+        <v>191.08192307692309</v>
       </c>
       <c r="B69" s="0">
-        <v>1.2097606666666667</v>
+        <v>1.7348590000000002</v>
       </c>
       <c r="C69" s="0">
         <v>10685</v>
@@ -863,32 +1511,32 @@
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>181.72944454545453</v>
+        <v>185.12975833333334</v>
       </c>
       <c r="B70" s="0">
-        <v>1.5107848181818184</v>
+        <v>1.2097606666666667</v>
       </c>
       <c r="C70" s="0">
-        <v>10690</v>
+        <v>10685</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>226.48316666666668</v>
+        <v>181.72944454545453</v>
       </c>
       <c r="B71" s="0">
-        <v>1.7569887777777777</v>
+        <v>1.5107848181818184</v>
       </c>
       <c r="C71" s="0">
-        <v>10691</v>
+        <v>10690</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>185.09346666666667</v>
+        <v>226.48316666666668</v>
       </c>
       <c r="B72" s="0">
-        <v>1.4790571666666665</v>
+        <v>1.7569887777777777</v>
       </c>
       <c r="C72" s="0">
         <v>10691</v>
@@ -896,21 +1544,21 @@
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>241.42284444444445</v>
+        <v>185.09346666666667</v>
       </c>
       <c r="B73" s="0">
-        <v>1.1408466666666668</v>
+        <v>1.4790571666666665</v>
       </c>
       <c r="C73" s="0">
-        <v>10700</v>
+        <v>10691</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>192.85299166666664</v>
+        <v>241.42284444444445</v>
       </c>
       <c r="B74" s="0">
-        <v>1.1735151666666666</v>
+        <v>1.1408466666666668</v>
       </c>
       <c r="C74" s="0">
         <v>10700</v>
@@ -918,21 +1566,21 @@
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>188.5287625</v>
+        <v>192.85299166666664</v>
       </c>
       <c r="B75" s="0">
-        <v>1.2315022500000001</v>
+        <v>1.1735151666666666</v>
       </c>
       <c r="C75" s="0">
-        <v>10701</v>
+        <v>10700</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>242.70875000000001</v>
+        <v>188.5287625</v>
       </c>
       <c r="B76" s="0">
-        <v>1.3353062499999999</v>
+        <v>1.2315022500000001</v>
       </c>
       <c r="C76" s="0">
         <v>10701</v>
@@ -940,21 +1588,21 @@
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>188.50638749999999</v>
+        <v>242.70875000000001</v>
       </c>
       <c r="B77" s="0">
-        <v>1.0540765000000001</v>
+        <v>1.3353062499999999</v>
       </c>
       <c r="C77" s="0">
-        <v>10716</v>
+        <v>10701</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>242.66625000000002</v>
+        <v>188.50638749999999</v>
       </c>
       <c r="B78" s="0">
-        <v>1.00443825</v>
+        <v>1.0540765000000001</v>
       </c>
       <c r="C78" s="0">
         <v>10716</v>
@@ -962,145 +1610,398 @@
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>188.5340875</v>
+        <v>242.66625000000002</v>
       </c>
       <c r="B79" s="0">
-        <v>1.1877215000000001</v>
+        <v>1.00443825</v>
       </c>
       <c r="C79" s="0">
-        <v>10720</v>
+        <v>10716</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>194.43290999999996</v>
+        <v>150.40224666666666</v>
       </c>
       <c r="B80" s="0">
-        <v>1.1319473</v>
+        <v>1.4500062000000002</v>
       </c>
       <c r="C80" s="0">
-        <v>10720</v>
+        <v>10718</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>194.17338181818184</v>
+        <v>189.28578750000003</v>
       </c>
       <c r="B81" s="0">
-        <v>1.1565228181818183</v>
+        <v>1.3531550624999999</v>
       </c>
       <c r="C81" s="0">
-        <v>10741</v>
+        <v>10718</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>189.93365833333334</v>
+        <v>188.5340875</v>
       </c>
       <c r="B82" s="0">
-        <v>1.2057360833333335</v>
+        <v>1.1877215000000001</v>
       </c>
       <c r="C82" s="0">
-        <v>10741</v>
+        <v>10720</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>195.64694374999999</v>
+        <v>194.43290999999996</v>
       </c>
       <c r="B83" s="0">
-        <v>1.0550737499999998</v>
+        <v>1.1319473</v>
       </c>
       <c r="C83" s="0">
-        <v>10777</v>
+        <v>10720</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>156.00997500000003</v>
+        <v>194.17338181818184</v>
       </c>
       <c r="B84" s="0">
-        <v>1.1154879166666667</v>
+        <v>1.1565228181818183</v>
       </c>
       <c r="C84" s="0">
-        <v>10781</v>
+        <v>10741</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>174.16504833333337</v>
+        <v>189.93365833333334</v>
       </c>
       <c r="B85" s="0">
-        <v>1.1470283333333335</v>
+        <v>1.2057360833333335</v>
       </c>
       <c r="C85" s="0">
-        <v>10781</v>
+        <v>10741</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>218.94557777777777</v>
+        <v>175.84021111111113</v>
       </c>
       <c r="B86" s="0">
-        <v>1.5900212222222221</v>
+        <v>1.4959113333333331</v>
       </c>
       <c r="C86" s="0">
-        <v>10783</v>
+        <v>10767</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>192.90200000000002</v>
+        <v>191.04130000000001</v>
       </c>
       <c r="B87" s="0">
-        <v>1.352749</v>
+        <v>1.099893375</v>
       </c>
       <c r="C87" s="0">
-        <v>10783</v>
+        <v>10770</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>186.22523846153848</v>
+        <v>214.16300000000001</v>
       </c>
       <c r="B88" s="0">
-        <v>1.0359566923076922</v>
+        <v>1.02937725</v>
       </c>
       <c r="C88" s="0">
-        <v>10800</v>
+        <v>10770</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>224.27805454545452</v>
+        <v>195.64694374999999</v>
       </c>
       <c r="B89" s="0">
-        <v>1.2075566363636363</v>
+        <v>1.0550737499999998</v>
       </c>
       <c r="C89" s="0">
-        <v>10800</v>
+        <v>10777</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>157.33767499999999</v>
+        <v>156.00997500000003</v>
       </c>
       <c r="B90" s="0">
-        <v>1.5022253749999999</v>
+        <v>1.1154879166666667</v>
       </c>
       <c r="C90" s="0">
-        <v>10804</v>
+        <v>10781</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
+        <v>174.16504833333337</v>
+      </c>
+      <c r="B91" s="0">
+        <v>1.1470283333333335</v>
+      </c>
+      <c r="C91" s="0">
+        <v>10781</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0">
+        <v>218.94557777777777</v>
+      </c>
+      <c r="B92" s="0">
+        <v>1.5900212222222221</v>
+      </c>
+      <c r="C92" s="0">
+        <v>10783</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0">
+        <v>192.90200000000002</v>
+      </c>
+      <c r="B93" s="0">
+        <v>1.352749</v>
+      </c>
+      <c r="C93" s="0">
+        <v>10783</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0">
+        <v>201.04219090909089</v>
+      </c>
+      <c r="B94" s="0">
+        <v>1.7164075454545455</v>
+      </c>
+      <c r="C94" s="0">
+        <v>10785</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0">
+        <v>247.65499999999997</v>
+      </c>
+      <c r="B95" s="0">
+        <v>1.6291677499999997</v>
+      </c>
+      <c r="C95" s="0">
+        <v>10785</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0">
+        <v>154.974175</v>
+      </c>
+      <c r="B96" s="0">
+        <v>1.5208267499999999</v>
+      </c>
+      <c r="C96" s="0">
+        <v>10794</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0">
+        <v>122.14682499999999</v>
+      </c>
+      <c r="B97" s="0">
+        <v>0.91419812499999997</v>
+      </c>
+      <c r="C97" s="0">
+        <v>10794</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0">
+        <v>186.22523846153848</v>
+      </c>
+      <c r="B98" s="0">
+        <v>1.0359566923076922</v>
+      </c>
+      <c r="C98" s="0">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0">
+        <v>224.27805454545452</v>
+      </c>
+      <c r="B99" s="0">
+        <v>1.2075566363636363</v>
+      </c>
+      <c r="C99" s="0">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0">
+        <v>241.72511</v>
+      </c>
+      <c r="B100" s="0">
+        <v>1.8414206</v>
+      </c>
+      <c r="C100" s="0">
+        <v>10801</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0">
+        <v>192.90173333333334</v>
+      </c>
+      <c r="B101" s="0">
+        <v>1.6750994166666668</v>
+      </c>
+      <c r="C101" s="0">
+        <v>10801</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0">
+        <v>177.4144277777778</v>
+      </c>
+      <c r="B102" s="0">
+        <v>1.5416294999999998</v>
+      </c>
+      <c r="C102" s="0">
+        <v>10802</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0">
+        <v>186.75632666666667</v>
+      </c>
+      <c r="B103" s="0">
+        <v>1.2441138666666665</v>
+      </c>
+      <c r="C103" s="0">
+        <v>10802</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0">
+        <v>177.93126923076923</v>
+      </c>
+      <c r="B104" s="0">
+        <v>1.080811769230769</v>
+      </c>
+      <c r="C104" s="0">
+        <v>10803</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0">
+        <v>157.33767499999999</v>
+      </c>
+      <c r="B105" s="0">
+        <v>1.5022253749999999</v>
+      </c>
+      <c r="C105" s="0">
+        <v>10804</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0">
         <v>168.36385714285714</v>
       </c>
-      <c r="B91" s="0">
+      <c r="B106" s="0">
         <v>1.2097911428571428</v>
       </c>
-      <c r="C91" s="0">
+      <c r="C106" s="0">
         <v>10804</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0">
+        <v>173.3510146153846</v>
+      </c>
+      <c r="B107" s="0">
+        <v>1.2984836923076923</v>
+      </c>
+      <c r="C107" s="0">
+        <v>10806</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0">
+        <v>202.41697857142859</v>
+      </c>
+      <c r="B108" s="0">
+        <v>1.292616214285714</v>
+      </c>
+      <c r="C108" s="0">
+        <v>10806</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0">
+        <v>166.11037499999998</v>
+      </c>
+      <c r="B109" s="0">
+        <v>1.9753434999999999</v>
+      </c>
+      <c r="C109" s="0">
+        <v>10807</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0">
+        <v>195.23844444444444</v>
+      </c>
+      <c r="B110" s="0">
+        <v>2.1170544444444443</v>
+      </c>
+      <c r="C110" s="0">
+        <v>10807</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0">
+        <v>189.53419999999997</v>
+      </c>
+      <c r="B111" s="0">
+        <v>1.3485617500000002</v>
+      </c>
+      <c r="C111" s="0">
+        <v>10809</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0">
+        <v>233.99200714285715</v>
+      </c>
+      <c r="B112" s="0">
+        <v>1.3736867142857145</v>
+      </c>
+      <c r="C112" s="0">
+        <v>10809</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0">
+        <v>261.86416666666668</v>
+      </c>
+      <c r="B113" s="0">
+        <v>1.6540291666666667</v>
+      </c>
+      <c r="C113" s="0">
+        <v>10812</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0">
+        <v>111.66709750000001</v>
+      </c>
+      <c r="B114" s="0">
+        <v>1.589129375</v>
+      </c>
+      <c r="C114" s="0">
+        <v>10812</v>
       </c>
     </row>
   </sheetData>
